--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_40_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_40_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_24</t>
+          <t>model_40_9_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.990969361398169</v>
+        <v>0.974729006633838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8161214571043098</v>
+        <v>0.7675876774985683</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6628907759978816</v>
+        <v>0.9984800178923223</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8905644822537077</v>
+        <v>0.9535868885154802</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9219527966268698</v>
+        <v>0.9669761636792464</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06038792191271107</v>
+        <v>0.1689872490017502</v>
       </c>
       <c r="H2" t="n">
-        <v>1.229596663026318</v>
+        <v>1.554142270727418</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2500332008767743</v>
+        <v>0.00261187892162478</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1250500939971172</v>
+        <v>0.4007706248584159</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1875415704348449</v>
+        <v>0.2016914448565161</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1524489639956874</v>
+        <v>0.6020273420291032</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2457395408002364</v>
+        <v>0.4110805869920766</v>
       </c>
       <c r="N2" t="n">
-        <v>1.006567737164968</v>
+        <v>1.0183789042663</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2562011818030796</v>
+        <v>0.428581138634456</v>
       </c>
       <c r="P2" t="n">
-        <v>119.6139323247406</v>
+        <v>117.5558640331986</v>
       </c>
       <c r="Q2" t="n">
-        <v>189.089854342228</v>
+        <v>187.0317860506861</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_23</t>
+          <t>model_40_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9909995461084633</v>
+        <v>0.9727283551160756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8160294829881116</v>
+        <v>0.7673536118359128</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6637651382460981</v>
+        <v>0.9982864649564068</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8915813287980917</v>
+        <v>0.9618170370123442</v>
       </c>
       <c r="F3" t="n">
-        <v>0.922329535039452</v>
+        <v>0.9727669055923963</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06018607661598559</v>
+        <v>0.182365614913181</v>
       </c>
       <c r="H3" t="n">
-        <v>1.230211694364837</v>
+        <v>1.555707468891368</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2493846882402704</v>
+        <v>0.002944472858739552</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1238881608462123</v>
+        <v>0.3297044616500762</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1866362963124523</v>
+        <v>0.1663247754026584</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1553707743633439</v>
+        <v>0.6197408902101144</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2453285075485228</v>
+        <v>0.4270428724533182</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00654578464839</v>
+        <v>1.019833923551945</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2557726500148844</v>
+        <v>0.4452229716342687</v>
       </c>
       <c r="P3" t="n">
-        <v>119.6206284777334</v>
+        <v>117.4034834676868</v>
       </c>
       <c r="Q3" t="n">
-        <v>189.0965504952208</v>
+        <v>186.8794054851742</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_22</t>
+          <t>model_40_9_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9910308212295614</v>
+        <v>0.9756408348111257</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8159257436066791</v>
+        <v>0.7671407934286578</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6647240217492</v>
+        <v>0.9981729268414335</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8926970009025385</v>
+        <v>0.943616795116975</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9227426591477377</v>
+        <v>0.9598850429680245</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0599769397371938</v>
+        <v>0.1628898497816444</v>
       </c>
       <c r="H4" t="n">
-        <v>1.230905400086152</v>
+        <v>1.557130586560621</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2486734863671737</v>
+        <v>0.003139572398268216</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1226133014184488</v>
+        <v>0.4868609651397042</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1856435900948834</v>
+        <v>0.2450001134196381</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1586664520028178</v>
+        <v>0.5874262447934584</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2449018981902627</v>
+        <v>0.4035961468865187</v>
       </c>
       <c r="N4" t="n">
-        <v>1.006523039105774</v>
+        <v>1.017715756501</v>
       </c>
       <c r="O4" t="n">
-        <v>0.25532787901304</v>
+        <v>0.4207780704186776</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6275902567003</v>
+        <v>117.6293621496408</v>
       </c>
       <c r="Q4" t="n">
-        <v>189.1035122741877</v>
+        <v>187.1052841671282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_21</t>
+          <t>model_40_9_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9910628775470878</v>
+        <v>0.9757485858622315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8158085930687943</v>
+        <v>0.766215389621967</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6657781418578588</v>
+        <v>0.997522642765618</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8939177739475624</v>
+        <v>0.9325913537188818</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9231956762995168</v>
+        <v>0.9519995213025731</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05976257899428933</v>
+        <v>0.1621693180067528</v>
       </c>
       <c r="H5" t="n">
-        <v>1.231688786272417</v>
+        <v>1.563318766077055</v>
       </c>
       <c r="I5" t="n">
-        <v>0.247891647704477</v>
+        <v>0.004256995598259585</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1212183449438671</v>
+        <v>0.5820640854891649</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1845550238887068</v>
+        <v>0.2931605464688034</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1623199316494618</v>
+        <v>0.5747884766352714</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2444638603030913</v>
+        <v>0.4027025180039887</v>
       </c>
       <c r="N5" t="n">
-        <v>1.0064997254203</v>
+        <v>1.017637392100195</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2548711929461483</v>
+        <v>0.4198463979045515</v>
       </c>
       <c r="P5" t="n">
-        <v>119.6347511664543</v>
+        <v>117.6382286333629</v>
       </c>
       <c r="Q5" t="n">
-        <v>189.1106731839417</v>
+        <v>187.1141506508503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_20</t>
+          <t>model_40_9_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9910950945498223</v>
+        <v>0.9692748138560928</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8156760784005954</v>
+        <v>0.7661727050672984</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6669319918608514</v>
+        <v>0.9973741353309752</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8952512781029034</v>
+        <v>0.9674115546688183</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9236908510135948</v>
+        <v>0.9765934425039428</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0595471437486583</v>
+        <v>0.2054594612207806</v>
       </c>
       <c r="H6" t="n">
-        <v>1.232574912468837</v>
+        <v>1.563604197890668</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2470358395893656</v>
+        <v>0.004512185074694201</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1196945725580359</v>
+        <v>0.2813965963669138</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1833651562252385</v>
+        <v>0.142954390720804</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1663643639102529</v>
+        <v>0.6404170335343489</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2440228344820589</v>
+        <v>0.4532763629627962</v>
       </c>
       <c r="N6" t="n">
-        <v>1.006476294872857</v>
+        <v>1.022345589922842</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2544113917428652</v>
+        <v>0.472573276145547</v>
       </c>
       <c r="P6" t="n">
-        <v>119.6419738964991</v>
+        <v>117.1650130670091</v>
       </c>
       <c r="Q6" t="n">
-        <v>189.1178959139865</v>
+        <v>186.6409350844966</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_19</t>
+          <t>model_40_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9911267451052107</v>
+        <v>0.9752734425061594</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8155259654797111</v>
+        <v>0.7649649662166719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6681958491349385</v>
+        <v>0.9966437609089697</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8967051583445973</v>
+        <v>0.9210252660964401</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9242316362318233</v>
+        <v>0.9436996298811459</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05933549633903779</v>
+        <v>0.1653466038166398</v>
       </c>
       <c r="H7" t="n">
-        <v>1.233578718261996</v>
+        <v>1.571680353145934</v>
       </c>
       <c r="I7" t="n">
-        <v>0.246098439313159</v>
+        <v>0.005767232451958829</v>
       </c>
       <c r="J7" t="n">
-        <v>0.118033248477623</v>
+        <v>0.6819356091890828</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1820656899444336</v>
+        <v>0.3438517222813431</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1708534142653813</v>
+        <v>0.5638018378013953</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2435887853310119</v>
+        <v>0.4066283362195013</v>
       </c>
       <c r="N7" t="n">
-        <v>1.006453276287119</v>
+        <v>1.017982950904611</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2539588642208526</v>
+        <v>0.4239393463290625</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6490951257406</v>
+        <v>117.5994227582528</v>
       </c>
       <c r="Q7" t="n">
-        <v>189.125017143228</v>
+        <v>187.0753447757402</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_18</t>
+          <t>model_40_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9911567290289367</v>
+        <v>0.9743868294058097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8153555871543263</v>
+        <v>0.7635057807260819</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6695754418422467</v>
+        <v>0.9956206343529773</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8982854890919024</v>
+        <v>0.9093016628476794</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9248201712644701</v>
+        <v>0.9352681657041766</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05913499370301926</v>
+        <v>0.1712753897011568</v>
       </c>
       <c r="H8" t="n">
-        <v>1.234718038908364</v>
+        <v>1.581437933240441</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2450751983100817</v>
+        <v>0.007525333861345766</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1162274315676579</v>
+        <v>0.7831672579477544</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1806514844443232</v>
+        <v>0.3953464721823473</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1758217120705719</v>
+        <v>0.5542145555050907</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2431768774020656</v>
+        <v>0.4138543097530298</v>
       </c>
       <c r="N8" t="n">
-        <v>1.006431469797137</v>
+        <v>1.018627760432138</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2535294205186041</v>
+        <v>0.4314729445157407</v>
       </c>
       <c r="P8" t="n">
-        <v>119.6558648395278</v>
+        <v>117.5289651036015</v>
       </c>
       <c r="Q8" t="n">
-        <v>189.1317868570152</v>
+        <v>187.0048871210889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_17</t>
+          <t>model_40_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9911836563353756</v>
+        <v>0.9732202791319278</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8151619534085008</v>
+        <v>0.7619250843882232</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6710791060489378</v>
+        <v>0.994515401691203</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8999966645412543</v>
+        <v>0.8976985684887182</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9254591867941453</v>
+        <v>0.9269103475767716</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05895493068087267</v>
+        <v>0.1790761167540756</v>
       </c>
       <c r="H9" t="n">
-        <v>1.236012868658301</v>
+        <v>1.592008056930139</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2439599337374325</v>
+        <v>0.009424523251930203</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1142721006550461</v>
+        <v>0.883358329560848</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1791159780995977</v>
+        <v>0.4463914324828838</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1813247684536065</v>
+        <v>0.5458268445263114</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2428063645806524</v>
+        <v>0.4231738611422917</v>
       </c>
       <c r="N9" t="n">
-        <v>1.006411886301545</v>
+        <v>1.019476160631325</v>
       </c>
       <c r="O9" t="n">
-        <v>0.253143134199316</v>
+        <v>0.4411892485017743</v>
       </c>
       <c r="P9" t="n">
-        <v>119.6619640275029</v>
+        <v>117.4398886605289</v>
       </c>
       <c r="Q9" t="n">
-        <v>189.1378860449903</v>
+        <v>186.9158106780163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_16</t>
+          <t>model_40_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9912057190706007</v>
+        <v>0.9718744581806719</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8149414109511631</v>
+        <v>0.760287966804463</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6727147688708095</v>
+        <v>0.9933733059139376</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9018432658021667</v>
+        <v>0.8864146152142941</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9261507183752938</v>
+        <v>0.9187729524478808</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05880739706883294</v>
+        <v>0.1880756276520595</v>
       </c>
       <c r="H10" t="n">
-        <v>1.237487637086022</v>
+        <v>1.602955469750977</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2427467660701332</v>
+        <v>0.01138705680548225</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1121620209843159</v>
+        <v>0.9807936632417728</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1774542796257413</v>
+        <v>0.4960901702362239</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1874142122233762</v>
+        <v>0.538910546544395</v>
       </c>
       <c r="M10" t="n">
-        <v>0.242502365078844</v>
+        <v>0.4336768700911539</v>
       </c>
       <c r="N10" t="n">
-        <v>1.006395840675927</v>
+        <v>1.020454939504966</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2528261928093499</v>
+        <v>0.4521393922858154</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6669752629988</v>
+        <v>117.341822244596</v>
       </c>
       <c r="Q10" t="n">
-        <v>189.1428972804863</v>
+        <v>186.8177442620834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_15</t>
+          <t>model_40_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9912204717330833</v>
+        <v>0.9704254732895229</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8146897379977165</v>
+        <v>0.7586422739996632</v>
       </c>
       <c r="D11" t="n">
-        <v>0.67448865589392</v>
+        <v>0.99222752607197</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9038259645734866</v>
+        <v>0.8755856707817083</v>
       </c>
       <c r="F11" t="n">
-        <v>0.926895989893831</v>
+        <v>0.9109566030480238</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05870874594688259</v>
+        <v>0.1977649962911345</v>
       </c>
       <c r="H11" t="n">
-        <v>1.239170575284567</v>
+        <v>1.613960225114392</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2414310778041268</v>
+        <v>0.0133559209144356</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1098964250166856</v>
+        <v>1.074300060205741</v>
       </c>
       <c r="K11" t="n">
-        <v>0.175663448116781</v>
+        <v>0.5438281370989584</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1941539923444267</v>
+        <v>0.5328550190230706</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2422988773124684</v>
+        <v>0.4447077650447927</v>
       </c>
       <c r="N11" t="n">
-        <v>1.006385111466849</v>
+        <v>1.021508746698529</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2526140421474819</v>
+        <v>0.4636398952747311</v>
       </c>
       <c r="P11" t="n">
-        <v>119.6703331385244</v>
+        <v>117.2413516812296</v>
       </c>
       <c r="Q11" t="n">
-        <v>189.1462551560118</v>
+        <v>186.717273698717</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_14</t>
+          <t>model_40_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.991224801841891</v>
+        <v>0.9689302386279175</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8144019585370617</v>
+        <v>0.7570226618781184</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6764083642750522</v>
+        <v>0.9911016379506072</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9059424139374788</v>
+        <v>0.865300029889201</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9276953423246752</v>
+        <v>0.9035272735129489</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05867979048934748</v>
+        <v>0.2077636373582122</v>
       </c>
       <c r="H12" t="n">
-        <v>1.241094957863069</v>
+        <v>1.62479057882879</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2400072341442411</v>
+        <v>0.01529060385408422</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1074779945349024</v>
+        <v>1.163115108275388</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1737426642355864</v>
+        <v>0.5892023993043092</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2016018789190284</v>
+        <v>0.5275015571700672</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2422391184126698</v>
+        <v>0.4558109666936637</v>
       </c>
       <c r="N12" t="n">
-        <v>1.006381962296807</v>
+        <v>1.022596190088787</v>
       </c>
       <c r="O12" t="n">
-        <v>0.252551739187601</v>
+        <v>0.4752157832045905</v>
       </c>
       <c r="P12" t="n">
-        <v>119.6713197922132</v>
+        <v>117.1427084085617</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.1472418097006</v>
+        <v>186.6186304260491</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_13</t>
+          <t>model_40_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9912146839180436</v>
+        <v>0.9674308027353112</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8140721917252889</v>
+        <v>0.7554535535983051</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6784766677270824</v>
+        <v>0.9900120024082777</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9081854317246433</v>
+        <v>0.8556110240392611</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9285478707607915</v>
+        <v>0.8965246608126411</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05874744909270364</v>
+        <v>0.2177903720763378</v>
       </c>
       <c r="H13" t="n">
-        <v>1.24330011005183</v>
+        <v>1.63528321312098</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2384731778334819</v>
+        <v>0.01716299175318392</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1049149364811871</v>
+        <v>1.246778297502258</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1716941024058277</v>
+        <v>0.6319705095740442</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2098374316865392</v>
+        <v>0.5227640748428979</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2423787306937299</v>
+        <v>0.4666801603628954</v>
       </c>
       <c r="N13" t="n">
-        <v>1.006389320786877</v>
+        <v>1.023686688919774</v>
       </c>
       <c r="O13" t="n">
-        <v>0.252697295052503</v>
+        <v>0.4865477009506541</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6690150931984</v>
+        <v>117.0484445496063</v>
       </c>
       <c r="Q13" t="n">
-        <v>189.1449371106858</v>
+        <v>186.5243665670938</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9911849757440004</v>
+        <v>0.965957717510099</v>
       </c>
       <c r="C14" t="n">
-        <v>0.813693420434218</v>
+        <v>0.7539516388355091</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6806987045300061</v>
+        <v>0.9889700598197065</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9105403802154647</v>
+        <v>0.8465446878660895</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9294507604976446</v>
+        <v>0.8899689608449612</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05894610778932376</v>
+        <v>0.2276408997602659</v>
       </c>
       <c r="H14" t="n">
-        <v>1.245832955419303</v>
+        <v>1.645326524055479</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2368250978204072</v>
+        <v>0.01895342591085323</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1022239771272204</v>
+        <v>1.325064822518154</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1695245261511935</v>
+        <v>0.6720091224621603</v>
       </c>
       <c r="L14" t="n">
-        <v>0.218927661062226</v>
+        <v>0.5185597143978635</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2427881953253159</v>
+        <v>0.4771172809281444</v>
       </c>
       <c r="N14" t="n">
-        <v>1.006410926731636</v>
+        <v>1.024758023629019</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2531241914411644</v>
+        <v>0.4974291513461838</v>
       </c>
       <c r="P14" t="n">
-        <v>119.6622633596099</v>
+        <v>116.9599717853944</v>
       </c>
       <c r="Q14" t="n">
-        <v>189.1381853770973</v>
+        <v>186.4358938028818</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_11</t>
+          <t>model_40_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9911290737047657</v>
+        <v>0.9645324225006993</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8132573965136064</v>
+        <v>0.7525276200159223</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6830733683713205</v>
+        <v>0.9879827679152688</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9129840611883101</v>
+        <v>0.8381070137316887</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9303983520583754</v>
+        <v>0.8838654856984591</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0593199249830919</v>
+        <v>0.2371718540510017</v>
       </c>
       <c r="H15" t="n">
-        <v>1.248748649384138</v>
+        <v>1.654848944459059</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2350638146546685</v>
+        <v>0.02064995043023169</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09943162468400599</v>
+        <v>1.397922940128377</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1672475347697004</v>
+        <v>0.7092857946509157</v>
       </c>
       <c r="L15" t="n">
-        <v>0.228958570053545</v>
+        <v>0.5148232035506448</v>
       </c>
       <c r="M15" t="n">
-        <v>0.243556820851094</v>
+        <v>0.4870029302283526</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00645158276017</v>
+        <v>1.025794601817673</v>
       </c>
       <c r="O15" t="n">
-        <v>0.253925538946849</v>
+        <v>0.507735653203217</v>
       </c>
       <c r="P15" t="n">
-        <v>119.6496200526546</v>
+        <v>116.8779405560866</v>
       </c>
       <c r="Q15" t="n">
-        <v>189.125542070142</v>
+        <v>186.353862573574</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_10</t>
+          <t>model_40_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9910385554026325</v>
+        <v>0.9631694819808142</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8127541361161238</v>
+        <v>0.7511877122392471</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6855970877631146</v>
+        <v>0.9870543589307005</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9154802623616705</v>
+        <v>0.830290292289587</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9313812646210315</v>
+        <v>0.8782090451440226</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05992522128625484</v>
+        <v>0.2462858435832373</v>
       </c>
       <c r="H16" t="n">
-        <v>1.252113953979405</v>
+        <v>1.663808913931395</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2331919773013213</v>
+        <v>0.0222452927998508</v>
       </c>
       <c r="J16" t="n">
-        <v>0.09657925830613501</v>
+        <v>1.465419219444625</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1648856696722493</v>
+        <v>0.7438322252075715</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2409081498124375</v>
+        <v>0.5115065005757952</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2447962852787085</v>
+        <v>0.4962719451905753</v>
       </c>
       <c r="N16" t="n">
-        <v>1.006517414252631</v>
+        <v>1.026785831286681</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2552177699411921</v>
+        <v>0.5173992693218876</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6293156118967</v>
+        <v>116.802524903648</v>
       </c>
       <c r="Q16" t="n">
-        <v>189.1052376293841</v>
+        <v>186.2784469211354</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_9</t>
+          <t>model_40_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9909026933422594</v>
+        <v>0.9618782587075577</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8121718182250686</v>
+        <v>0.7499347825317615</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6882592371833394</v>
+        <v>0.9861866568454893</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9179762529225102</v>
+        <v>0.8230759392655136</v>
       </c>
       <c r="F17" t="n">
-        <v>0.932385621900953</v>
+        <v>0.8729870733903917</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06083373150955672</v>
+        <v>0.2549202595570397</v>
       </c>
       <c r="H17" t="n">
-        <v>1.256007916398219</v>
+        <v>1.672187260654562</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2312174666876726</v>
+        <v>0.02373631876335743</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09372713259158842</v>
+        <v>1.527714133035398</v>
       </c>
       <c r="K17" t="n">
-        <v>0.162472274529138</v>
+        <v>0.7757251590799408</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2588647147234233</v>
+        <v>0.5085482577396419</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2466449503021635</v>
+        <v>0.5048962859410234</v>
       </c>
       <c r="N17" t="n">
-        <v>1.006616223023811</v>
+        <v>1.02772490275814</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2571451364619598</v>
+        <v>0.5263907661129289</v>
       </c>
       <c r="P17" t="n">
-        <v>119.5992216985731</v>
+        <v>116.7336089806928</v>
       </c>
       <c r="Q17" t="n">
-        <v>189.0751437160605</v>
+        <v>186.2095309981802</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_8</t>
+          <t>model_40_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9907078922897985</v>
+        <v>0.9606641648597394</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8114961436346673</v>
+        <v>0.7487691308205733</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6910417421186341</v>
+        <v>0.9853794887449787</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9203954125075476</v>
+        <v>0.8164395619844991</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9333901143579378</v>
+        <v>0.8681820448002601</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06213636704433936</v>
+        <v>0.2630389107077889</v>
       </c>
       <c r="H18" t="n">
-        <v>1.260526155495428</v>
+        <v>1.67998197901461</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2291536886421843</v>
+        <v>0.02512332545066166</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09096280031873076</v>
+        <v>1.585018308184169</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1600585545656913</v>
+        <v>0.8050716332299317</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2787810752909111</v>
+        <v>0.5059154885161086</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2492716731687324</v>
+        <v>0.5128731916446685</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00675789651651</v>
+        <v>1.028607880102008</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2598836843590244</v>
+        <v>0.5347072652068493</v>
       </c>
       <c r="P18" t="n">
-        <v>119.5568476815396</v>
+        <v>116.6709066165771</v>
       </c>
       <c r="Q18" t="n">
-        <v>189.032769699027</v>
+        <v>186.1468286340645</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_7</t>
+          <t>model_40_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9904368147829481</v>
+        <v>0.9595294628953115</v>
       </c>
       <c r="C19" t="n">
-        <v>0.810709703318504</v>
+        <v>0.7476894110635395</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6939126994939573</v>
+        <v>0.9846320474895212</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9226323066989394</v>
+        <v>0.8103503858206021</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9343650770919029</v>
+        <v>0.8637725204716855</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06394906358084493</v>
+        <v>0.2706266679687404</v>
       </c>
       <c r="H19" t="n">
-        <v>1.265785085510836</v>
+        <v>1.687202070001547</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2270243056083687</v>
+        <v>0.02640769981955803</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08840673959314771</v>
+        <v>1.63759747941452</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1577157923097641</v>
+        <v>0.8320025846894155</v>
       </c>
       <c r="L19" t="n">
-        <v>0.302795201177278</v>
+        <v>0.5035626185037793</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2528815208370215</v>
+        <v>0.5202179043138946</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00695504379422</v>
+        <v>1.029433117894319</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2636472107159674</v>
+        <v>0.5423646575000556</v>
       </c>
       <c r="P19" t="n">
-        <v>119.4993367881073</v>
+        <v>116.614030033699</v>
       </c>
       <c r="Q19" t="n">
-        <v>188.9752588055947</v>
+        <v>186.0899520511864</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_6</t>
+          <t>model_40_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9900673969455714</v>
+        <v>0.9584744687646781</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8097913301559652</v>
+        <v>0.7466929847669106</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6968152668930097</v>
+        <v>0.9839423223094778</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9245404023673612</v>
+        <v>0.8047777541667622</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9352668524822931</v>
+        <v>0.8597360444519913</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06641936236039579</v>
+        <v>0.2776814185780871</v>
       </c>
       <c r="H20" t="n">
-        <v>1.271926251077453</v>
+        <v>1.693865177235226</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2248714774865815</v>
+        <v>0.02759289709942709</v>
       </c>
       <c r="J20" t="n">
-        <v>0.08622639131495152</v>
+        <v>1.685716362173762</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1555488937460225</v>
+        <v>0.8566551620772582</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3304470086865358</v>
+        <v>0.5014579126562402</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2577195420615127</v>
+        <v>0.5269548544022411</v>
       </c>
       <c r="N20" t="n">
-        <v>1.007223711312312</v>
+        <v>1.030200386352961</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2686911965200697</v>
+        <v>0.5493884135010723</v>
       </c>
       <c r="P20" t="n">
-        <v>119.4235333263882</v>
+        <v>116.5625615975246</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.8994553438756</v>
+        <v>186.038483615012</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_5</t>
+          <t>model_40_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9895716181124564</v>
+        <v>0.957497612279162</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8087147865804363</v>
+        <v>0.7457761382552111</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6996671903967703</v>
+        <v>0.9833076771860892</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9259219445388183</v>
+        <v>0.7996867488612143</v>
       </c>
       <c r="F21" t="n">
-        <v>0.936035479838732</v>
+        <v>0.8560481039331042</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0697346377002869</v>
+        <v>0.2842136623947442</v>
       </c>
       <c r="H21" t="n">
-        <v>1.279125102924042</v>
+        <v>1.699996134080651</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2227562118351839</v>
+        <v>0.02868344692374264</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08464772670989887</v>
+        <v>1.729676469828739</v>
       </c>
       <c r="K21" t="n">
-        <v>0.153701939911987</v>
+        <v>0.8791790761547926</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3610578485427662</v>
+        <v>0.4995793853697878</v>
       </c>
       <c r="M21" t="n">
-        <v>0.264073167323541</v>
+        <v>0.5331169312587476</v>
       </c>
       <c r="N21" t="n">
-        <v>1.007584277736395</v>
+        <v>1.030910827433337</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2753153087633201</v>
+        <v>0.5558128227266178</v>
       </c>
       <c r="P21" t="n">
-        <v>119.3261162611268</v>
+        <v>116.5160579826104</v>
       </c>
       <c r="Q21" t="n">
-        <v>188.8020382786142</v>
+        <v>185.9919800000978</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_4</t>
+          <t>model_40_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9889135796770623</v>
+        <v>0.956596449643956</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8074472916856439</v>
+        <v>0.7449348476709898</v>
       </c>
       <c r="D22" t="n">
-        <v>0.702328693226826</v>
+        <v>0.982725368628333</v>
       </c>
       <c r="E22" t="n">
-        <v>0.926508720662293</v>
+        <v>0.7950452036987496</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9365857219373845</v>
+        <v>0.8526848832574673</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07413494374775638</v>
+        <v>0.2902397410858389</v>
       </c>
       <c r="H22" t="n">
-        <v>1.287600847121795</v>
+        <v>1.705621848091125</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2207821807961007</v>
+        <v>0.02968406360219072</v>
       </c>
       <c r="J22" t="n">
-        <v>0.08397722767168091</v>
+        <v>1.76975555299234</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1523797494574836</v>
+        <v>0.8997197798711025</v>
       </c>
       <c r="L22" t="n">
-        <v>0.394924552434736</v>
+        <v>0.4979005452224698</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2722773287436109</v>
+        <v>0.5387390287382555</v>
       </c>
       <c r="N22" t="n">
-        <v>1.008062851143955</v>
+        <v>1.031566218440759</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2838687383199978</v>
+        <v>0.5616742645351745</v>
       </c>
       <c r="P22" t="n">
-        <v>119.2037365645873</v>
+        <v>116.4740960082499</v>
       </c>
       <c r="Q22" t="n">
-        <v>188.6796585820747</v>
+        <v>185.9500180257373</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_3</t>
+          <t>model_40_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9880476798743892</v>
+        <v>0.9557674466878024</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8059472109473327</v>
+        <v>0.7441646630148824</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7045838142489153</v>
+        <v>0.9821923561764776</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9259503915639216</v>
+        <v>0.7908183730694436</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9368009872538505</v>
+        <v>0.8496218035351801</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07992521971533269</v>
+        <v>0.2957832876708454</v>
       </c>
       <c r="H23" t="n">
-        <v>1.29763189392612</v>
+        <v>1.71077207643289</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2191095622874065</v>
+        <v>0.03059997174409117</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08461522078096131</v>
+        <v>1.806253635070777</v>
       </c>
       <c r="K23" t="n">
-        <v>0.15186248306272</v>
+        <v>0.9184273875790098</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4323965705742454</v>
+        <v>0.4963975273738803</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2827104874519739</v>
+        <v>0.543859621291051</v>
       </c>
       <c r="N23" t="n">
-        <v>1.00869259645499</v>
+        <v>1.032169129681598</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2947460581941916</v>
+        <v>0.5670128513140305</v>
       </c>
       <c r="P23" t="n">
-        <v>119.0533276700423</v>
+        <v>116.4362564580957</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.5292496875297</v>
+        <v>185.9121784755831</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_2</t>
+          <t>model_40_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9869157499887519</v>
+        <v>0.9550071378298944</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8041609820776507</v>
+        <v>0.7434609421060483</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7060928358329166</v>
+        <v>0.9817052903889294</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9237911212237874</v>
+        <v>0.7869755925125601</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9365206902871225</v>
+        <v>0.846836877013097</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08749444007264782</v>
+        <v>0.3008674765045766</v>
       </c>
       <c r="H24" t="n">
-        <v>1.309576414602511</v>
+        <v>1.7154778613906</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2179903241592988</v>
+        <v>0.0314369269013367</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0870825820596364</v>
+        <v>1.839435499326735</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1525360156309146</v>
+        <v>0.9354361883919304</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4738398939370738</v>
+        <v>0.4950554303106188</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2957945910131689</v>
+        <v>0.5485138799561745</v>
       </c>
       <c r="N24" t="n">
-        <v>1.009515818189999</v>
+        <v>1.032722081578259</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3083871791318148</v>
+        <v>0.5718652514061718</v>
       </c>
       <c r="P24" t="n">
-        <v>118.8723600593287</v>
+        <v>116.4021707771545</v>
       </c>
       <c r="Q24" t="n">
-        <v>188.3482820768161</v>
+        <v>185.8780927946419</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_1</t>
+          <t>model_40_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.985443958897641</v>
+        <v>0.9543112113118759</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8020188825206707</v>
+        <v>0.7428190166707891</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7063369449053056</v>
+        <v>0.9812610153385555</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9194634376882705</v>
+        <v>0.7834853843772499</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9355291704556793</v>
+        <v>0.8443071236143017</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09733631387588051</v>
+        <v>0.3055211403350135</v>
       </c>
       <c r="H25" t="n">
-        <v>1.323900644203498</v>
+        <v>1.719770419731974</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2178092689748458</v>
+        <v>0.03220035209799787</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09202775200127072</v>
+        <v>1.869572950804012</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1549185633490838</v>
+        <v>0.9508865319915633</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5196543488075238</v>
+        <v>0.4938516392758638</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3119876822502461</v>
+        <v>0.5527396677777102</v>
       </c>
       <c r="N25" t="n">
-        <v>1.010586211710806</v>
+        <v>1.033228209954999</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3252696437871744</v>
+        <v>0.5762709397638571</v>
       </c>
       <c r="P25" t="n">
-        <v>118.6591662876767</v>
+        <v>116.371472607264</v>
       </c>
       <c r="Q25" t="n">
-        <v>188.1350883051641</v>
+        <v>185.8473946247515</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_40_9_0</t>
+          <t>model_40_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9835393794801159</v>
+        <v>0.9536754573198225</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7994293750987227</v>
+        <v>0.7422343886229033</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7045340464790237</v>
+        <v>0.9808563619732162</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9122909637955987</v>
+        <v>0.7803187646133006</v>
       </c>
       <c r="F26" t="n">
-        <v>0.933545698931786</v>
+        <v>0.8420115119237706</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1100722452106533</v>
+        <v>0.3097724302072525</v>
       </c>
       <c r="H26" t="n">
-        <v>1.341216692257649</v>
+        <v>1.72367983018015</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2191464749374336</v>
+        <v>0.03289569291165319</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1002236152177252</v>
+        <v>1.896916262659117</v>
       </c>
       <c r="K26" t="n">
-        <v>0.159684696515001</v>
+        <v>0.9649068667036076</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5721311996056112</v>
+        <v>0.492767389470001</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3317713749114792</v>
+        <v>0.5565720350567862</v>
       </c>
       <c r="N26" t="n">
-        <v>1.011971360378098</v>
+        <v>1.033690576494674</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3458955692028858</v>
+        <v>0.5802664588520973</v>
       </c>
       <c r="P26" t="n">
-        <v>118.413236708259</v>
+        <v>116.3438346943781</v>
       </c>
       <c r="Q26" t="n">
-        <v>187.8891587257464</v>
+        <v>185.8197567118656</v>
       </c>
     </row>
   </sheetData>
